--- a/ru/downloads/data-excel/2.1.1.xlsx
+++ b/ru/downloads/data-excel/2.1.1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="11985"/>
   </bookViews>
@@ -677,7 +682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,10 +693,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="AI21" sqref="AI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -701,7 +706,7 @@
     <col min="3" max="3" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>44</v>
       </c>
@@ -712,7 +717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
@@ -723,12 +728,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>36</v>
       </c>
@@ -798,8 +803,11 @@
       <c r="W4" s="4">
         <v>2019</v>
       </c>
+      <c r="X4" s="4">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
@@ -869,8 +877,11 @@
       <c r="W5" s="15">
         <v>46.295295294358674</v>
       </c>
+      <c r="X5" s="15">
+        <v>45.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>42</v>
       </c>
@@ -940,8 +951,11 @@
       <c r="W6" s="20">
         <v>50.603850183048863</v>
       </c>
+      <c r="X6" s="20">
+        <v>48.2</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
@@ -1011,8 +1025,11 @@
       <c r="W7" s="20">
         <v>43.877915313561275</v>
       </c>
+      <c r="X7" s="20">
+        <v>43.6</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
@@ -1082,8 +1099,11 @@
       <c r="W8" s="20">
         <v>52.570866370923582</v>
       </c>
+      <c r="X8" s="20">
+        <v>48.8</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>16</v>
       </c>
@@ -1153,8 +1173,11 @@
       <c r="W9" s="20">
         <v>38.752157909153183</v>
       </c>
+      <c r="X9" s="20">
+        <v>41.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
@@ -1224,8 +1247,11 @@
       <c r="W10" s="20">
         <v>50.1935771268016</v>
       </c>
+      <c r="X10" s="20">
+        <v>49.7</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
@@ -1295,8 +1321,11 @@
       <c r="W11" s="20">
         <v>41.551325221738189</v>
       </c>
+      <c r="X11" s="20">
+        <v>46.7</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>19</v>
       </c>
@@ -1366,8 +1395,11 @@
       <c r="W12" s="20">
         <v>36.617814677429443</v>
       </c>
+      <c r="X12" s="20">
+        <v>36.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
@@ -1437,8 +1469,11 @@
       <c r="W13" s="20">
         <v>36.955662212456026</v>
       </c>
+      <c r="X13" s="20">
+        <v>29.6</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
@@ -1508,8 +1543,11 @@
       <c r="W14" s="20">
         <v>56.003891368002655</v>
       </c>
+      <c r="X14" s="20">
+        <v>54.7</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>22</v>
       </c>
@@ -1579,8 +1617,11 @@
       <c r="W15" s="20">
         <v>53.673189719854925</v>
       </c>
+      <c r="X15" s="20">
+        <v>51.6</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>23</v>
       </c>
@@ -1624,6 +1665,9 @@
       <c r="W16" s="25">
         <v>59.265443982401813</v>
       </c>
+      <c r="X16" s="25">
+        <v>47.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ru/downloads/data-excel/2.1.1.xlsx
+++ b/ru/downloads/data-excel/2.1.1.xlsx
@@ -693,10 +693,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI21" sqref="AI21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -706,7 +706,7 @@
     <col min="3" max="3" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>44</v>
       </c>
@@ -717,7 +717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
@@ -728,12 +728,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>36</v>
       </c>
@@ -806,8 +806,11 @@
       <c r="X4" s="4">
         <v>2020</v>
       </c>
+      <c r="Y4" s="4">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
@@ -880,8 +883,11 @@
       <c r="X5" s="15">
         <v>45.3</v>
       </c>
+      <c r="Y5" s="15">
+        <v>46.69</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>42</v>
       </c>
@@ -954,8 +960,11 @@
       <c r="X6" s="20">
         <v>48.2</v>
       </c>
+      <c r="Y6" s="20">
+        <v>52.52</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
@@ -1028,8 +1037,11 @@
       <c r="X7" s="20">
         <v>43.6</v>
       </c>
+      <c r="Y7" s="20">
+        <v>43.22</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
@@ -1102,8 +1114,11 @@
       <c r="X8" s="20">
         <v>48.8</v>
       </c>
+      <c r="Y8" s="20">
+        <v>51.31</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>16</v>
       </c>
@@ -1176,8 +1191,11 @@
       <c r="X9" s="20">
         <v>41.5</v>
       </c>
+      <c r="Y9" s="20">
+        <v>41.31</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
@@ -1250,8 +1268,11 @@
       <c r="X10" s="20">
         <v>49.7</v>
       </c>
+      <c r="Y10" s="20">
+        <v>52.43</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
@@ -1324,8 +1345,11 @@
       <c r="X11" s="20">
         <v>46.7</v>
       </c>
+      <c r="Y11" s="20">
+        <v>49.27</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1422,11 @@
       <c r="X12" s="20">
         <v>36.5</v>
       </c>
+      <c r="Y12" s="20">
+        <v>31.68</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
@@ -1472,8 +1499,11 @@
       <c r="X13" s="20">
         <v>29.6</v>
       </c>
+      <c r="Y13" s="20">
+        <v>35.590000000000003</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
@@ -1546,8 +1576,11 @@
       <c r="X14" s="20">
         <v>54.7</v>
       </c>
+      <c r="Y14" s="20">
+        <v>55.28</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>22</v>
       </c>
@@ -1620,8 +1653,11 @@
       <c r="X15" s="20">
         <v>51.6</v>
       </c>
+      <c r="Y15" s="20">
+        <v>61.02</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>23</v>
       </c>
@@ -1668,6 +1704,9 @@
       <c r="X16" s="25">
         <v>47.2</v>
       </c>
+      <c r="Y16" s="25">
+        <v>48.72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ru/downloads/data-excel/2.1.1.xlsx
+++ b/ru/downloads/data-excel/2.1.1.xlsx
@@ -319,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -399,15 +399,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -693,10 +698,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -706,8 +711,8 @@
     <col min="3" max="3" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:26" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>44</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -717,7 +722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
@@ -728,19 +733,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="4">
@@ -809,8 +814,11 @@
       <c r="Y4" s="4">
         <v>2021</v>
       </c>
+      <c r="Z4" s="39">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
@@ -886,9 +894,12 @@
       <c r="Y5" s="15">
         <v>46.69</v>
       </c>
+      <c r="Z5" s="15">
+        <v>47.345690436648667</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -963,8 +974,11 @@
       <c r="Y6" s="20">
         <v>52.52</v>
       </c>
+      <c r="Z6" s="20">
+        <v>55.294335329978139</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
@@ -1040,8 +1054,11 @@
       <c r="Y7" s="20">
         <v>43.22</v>
       </c>
+      <c r="Z7" s="20">
+        <v>42.721146742902135</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
@@ -1117,8 +1134,11 @@
       <c r="Y8" s="20">
         <v>51.31</v>
       </c>
+      <c r="Z8" s="20">
+        <v>56.732662465911261</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>16</v>
       </c>
@@ -1194,8 +1214,11 @@
       <c r="Y9" s="20">
         <v>41.31</v>
       </c>
+      <c r="Z9" s="20">
+        <v>39.351829932862628</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
@@ -1271,8 +1294,11 @@
       <c r="Y10" s="20">
         <v>52.43</v>
       </c>
+      <c r="Z10" s="20">
+        <v>43.952035422218046</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
@@ -1348,8 +1374,11 @@
       <c r="Y11" s="20">
         <v>49.27</v>
       </c>
+      <c r="Z11" s="20">
+        <v>57.461907794486649</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>19</v>
       </c>
@@ -1425,8 +1454,11 @@
       <c r="Y12" s="20">
         <v>31.68</v>
       </c>
+      <c r="Z12" s="20">
+        <v>32.073481974524846</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
@@ -1502,8 +1534,11 @@
       <c r="Y13" s="20">
         <v>35.590000000000003</v>
       </c>
+      <c r="Z13" s="20">
+        <v>33.564455947162017</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
@@ -1579,8 +1614,11 @@
       <c r="Y14" s="20">
         <v>55.28</v>
       </c>
+      <c r="Z14" s="20">
+        <v>55.803694659011171</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>22</v>
       </c>
@@ -1656,8 +1694,11 @@
       <c r="Y15" s="20">
         <v>61.02</v>
       </c>
+      <c r="Z15" s="20">
+        <v>63.920911723512503</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>23</v>
       </c>
@@ -1707,6 +1748,9 @@
       <c r="Y16" s="25">
         <v>48.72</v>
       </c>
+      <c r="Z16" s="25">
+        <v>52.521342498654128</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ru/downloads/data-excel/2.1.1.xlsx
+++ b/ru/downloads/data-excel/2.1.1.xlsx
@@ -698,11 +698,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -711,7 +709,7 @@
     <col min="3" max="3" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>44</v>
       </c>
@@ -722,7 +720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
@@ -733,12 +731,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>36</v>
       </c>
@@ -817,8 +815,11 @@
       <c r="Z4" s="39">
         <v>2022</v>
       </c>
+      <c r="AA4" s="39">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
@@ -897,8 +898,11 @@
       <c r="Z5" s="15">
         <v>47.345690436648667</v>
       </c>
+      <c r="AA5" s="15">
+        <v>44.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>42</v>
       </c>
@@ -977,8 +981,11 @@
       <c r="Z6" s="20">
         <v>55.294335329978139</v>
       </c>
+      <c r="AA6" s="20">
+        <v>50.4</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
@@ -1057,8 +1064,11 @@
       <c r="Z7" s="20">
         <v>42.721146742902135</v>
       </c>
+      <c r="AA7" s="20">
+        <v>40.6</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
@@ -1137,8 +1147,11 @@
       <c r="Z8" s="20">
         <v>56.732662465911261</v>
       </c>
+      <c r="AA8" s="20">
+        <v>57.2</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>16</v>
       </c>
@@ -1217,8 +1230,11 @@
       <c r="Z9" s="20">
         <v>39.351829932862628</v>
       </c>
+      <c r="AA9" s="20">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
@@ -1297,8 +1313,11 @@
       <c r="Z10" s="20">
         <v>43.952035422218046</v>
       </c>
+      <c r="AA10" s="20">
+        <v>49.7</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
@@ -1377,8 +1396,11 @@
       <c r="Z11" s="20">
         <v>57.461907794486649</v>
       </c>
+      <c r="AA11" s="20">
+        <v>51</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>19</v>
       </c>
@@ -1457,8 +1479,11 @@
       <c r="Z12" s="20">
         <v>32.073481974524846</v>
       </c>
+      <c r="AA12" s="20">
+        <v>29.4</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
@@ -1537,8 +1562,11 @@
       <c r="Z13" s="20">
         <v>33.564455947162017</v>
       </c>
+      <c r="AA13" s="20">
+        <v>29.9</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
@@ -1617,8 +1645,11 @@
       <c r="Z14" s="20">
         <v>55.803694659011171</v>
       </c>
+      <c r="AA14" s="20">
+        <v>56.3</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>22</v>
       </c>
@@ -1697,8 +1728,11 @@
       <c r="Z15" s="20">
         <v>63.920911723512503</v>
       </c>
+      <c r="AA15" s="20">
+        <v>62.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>23</v>
       </c>
@@ -1751,6 +1785,9 @@
       <c r="Z16" s="25">
         <v>52.521342498654128</v>
       </c>
+      <c r="AA16" s="25">
+        <v>34.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
